--- a/py_version/src/schedules/schedule-lists_owners-grouped.xlsx
+++ b/py_version/src/schedules/schedule-lists_owners-grouped.xlsx
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>#re</t>
         </is>
       </c>
       <c r="C45" s="5" t="inlineStr">
